--- a/IGGLE-4/IGGLE-4 ISA.xlsx
+++ b/IGGLE-4/IGGLE-4 ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hamzah\IGGLE\IGGLE-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB581FB-378B-4E05-8855-BD8A1C9CDF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00E613-AB6A-4048-A0B1-B81C9B3C825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,19 +160,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -195,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -226,15 +220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -362,6 +347,115 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -370,63 +464,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +856,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,210 +869,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="15" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="15" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="15" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="15" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="15" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="15" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="15" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="16" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
